--- a/step2-analysis/GNN.xlsx
+++ b/step2-analysis/GNN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hikk\Desktop\gnn-parallel-project\step2-analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="14220" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="11988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>清空梯度</t>
   </si>
@@ -27,19 +32,25 @@
   <si>
     <t>参数更新</t>
   </si>
+  <si>
+    <t xml:space="preserve">3.337860107421875e-05
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17020893096923828
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.000000000000_);[Red]\(0.000000000000\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,345 +59,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -394,327 +89,44 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -751,11 +163,6 @@
               </a:rPr>
               <a:t>Medium10</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="en-US" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -763,8 +170,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00227289946208046"/>
-          <c:y val="0.912618796198522"/>
+          <c:x val="0"/>
+          <c:y val="0.90388268080231315"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -775,6 +182,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -784,9 +208,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.101158864159632"/>
-          <c:y val="0.177404614019521"/>
-          <c:w val="0.604282425172678"/>
-          <c:h val="0.698651286601597"/>
+          <c:y val="0.17740461401952101"/>
+          <c:w val="0.60428242517267805"/>
+          <c:h val="0.69865128660159703"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -795,18 +219,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Pubmed"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pubmed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pubmed</c:v>
           </c:tx>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -847,6 +261,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4A8A-4024-9F91-E4719C1E0705}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -888,6 +307,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4A8A-4024-9F91-E4719C1E0705}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -929,6 +353,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4A8A-4024-9F91-E4719C1E0705}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -970,14 +399,19 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4A8A-4024-9F91-E4719C1E0705}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0486075380021638"/>
-                  <c:y val="-0.0658192779889606"/>
+                  <c:x val="4.8607538002163803E-2"/>
+                  <c:y val="-6.5819277988960603E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -991,14 +425,17 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4A8A-4024-9F91-E4719C1E0705}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.132964618531707"/>
-                  <c:y val="0.00989968321013728"/>
+                  <c:x val="0.13296461853170699"/>
+                  <c:y val="9.8996832101372802E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1012,6 +449,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4A8A-4024-9F91-E4719C1E0705}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1019,7 +459,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.121545937077375"/>
-                  <c:y val="-0.0054724956875914"/>
+                  <c:y val="-5.4724956875913996E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1033,14 +473,17 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4A8A-4024-9F91-E4719C1E0705}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0864361381246062"/>
-                  <c:y val="-0.0674970415143699"/>
+                  <c:x val="-8.6436138124606196E-2"/>
+                  <c:y val="-6.7497041514369902E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -1053,6 +496,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4A8A-4024-9F91-E4719C1E0705}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1081,6 +527,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1091,24 +538,21 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1135,23 +579,28 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.000000000000_);[Red]\(0.000000000000\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.00249266624450683</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000132083892822265</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.73992991447448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.0272216796875E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4A8A-4024-9F91-E4719C1E0705}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1193,6 +642,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1215,6 +665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1237,6 +688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1259,6 +711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1266,8 +719,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.727455871066769"/>
-          <c:y val="0.254048358473824"/>
+          <c:x val="0.72745587106676901"/>
+          <c:y val="0.25404835847382401"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1295,6 +748,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1324,6 +778,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1888,7 +1343,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1902,14 +1357,14 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1369695" y="1533525"/>
-        <a:ext cx="6655435" cy="5725160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2174,58 +1629,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="18.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.4"/>
+    <col min="2" max="2" width="17.21875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.00249266624450683</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.000132083892822265</v>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1.73992991447448</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>6.0272216796875E-4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/step2-analysis/GNN.xlsx
+++ b/step2-analysis/GNN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>清空梯度</t>
   </si>
@@ -32,23 +32,13 @@
   <si>
     <t>参数更新</t>
   </si>
-  <si>
-    <t xml:space="preserve">3.337860107421875e-05
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17020893096923828
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000000000000_);[Red]\(0.000000000000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000000000000_);[Red]\(0.000000000000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -95,18 +85,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -156,13 +149,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="en-US" sz="2400">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Medium10</a:t>
+              <a:t>Medium10_d</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -582,16 +580,16 @@
                 <c:formatCode>0.000000000000_);[Red]\(0.000000000000\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5497207641601502E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.127689599990844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.73992991447448</c:v>
+                  <c:v>1.50156021118164E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0272216796875E-4</c:v>
+                  <c:v>1.59978866577148E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,15 +1345,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>699135</xdr:colOff>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:colOff>466090</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>114935</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1635,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1644,38 +1642,42 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+      <c r="B2" s="3">
+        <v>1.5497207641601502E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="3">
+        <v>0.127689599990844</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.58306884765625E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1.73992991447448</v>
+        <v>1.50156021118164E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6.0272216796875E-4</v>
+        <v>1.59978866577148E-4</v>
       </c>
     </row>
   </sheetData>
